--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
@@ -48,7 +48,7 @@
     <t>IPSL-CM6A-LR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
@@ -123,7 +123,7 @@
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
+    <t>Responsible party identifiers</t>
   </si>
   <si>
     <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
@@ -135,7 +135,7 @@
     <t>Citations</t>
   </si>
   <si>
-    <t>Mnemonic references to citations</t>
+    <t>Citation identifiers</t>
   </si>
   <si>
     <t>2.1</t>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/repos/institutional/ipsl/cmip6/models/ipsl-cm6a-lr/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA31AB9-DA38-274F-92E0-E1462028DBCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25800" windowHeight="15780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
     <sheet name="9. River Routing" sheetId="11" r:id="rId11"/>
     <sheet name="10. Lakes" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -207,13 +213,6 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>ORCHIDEE (ORganizing Carbon and Hydrology In Dynamic EcosystEms) is a land-surface model that simulates the energy and water cycles of soil and vegetation, the terrestrial carbon cycle, and the vegetation composition and distribution (Krinner et al, 2005). The land surface is described as a mosaic of twelve plant functional types (PFTs) and bare soil. The definition of PFT is based on ecological parameters such as plant physiognomy (tree or grass), leaves (needle-leaf or broad-leaf), phenology (evergreen, summergreen or raingreen) and photosynthesis pathways for crops and grasses (C3 or C4). Relevant biophysical and biogeochemical parameters are prescribed for each PFT._x005F_x000D_
-_x005F_x000D_
-Exchanges of energy (latent, sensible, and kinetic energy) and water, between the atmosphere and the biosphere are based on the work of Ducoudré et al (1993); de Rosnay and Polcher (1998) and calculated at a 30min time step together with the exchange of carbon during photosynthesis. The soil water budget within the standard version of ORCHIDEE is done with a 2-layers bucket model (de Rosnay and Polcher, 1998). The water that is not infiltrated or drained at the bottom of the soil is transported through rivers and aquifers (d’Orgeval et al, 2008). This routing scheme allows re-evaporation of the water on its way to the ocean through floodplains or irrigation (de Rosnay et al, 2003)._x005F_x000D_
-_x005F_x000D_
-The exchanges of water and energy at the land surface are interlinked with the exchange of carbon. The vegetation state (ie foliage density, interception capacity, soil-water stresses) is computed dynamically within ORCHIDEE (Krinner et al, 2005) and accounts for carbon assimilation, carbon allocation and senescence processes. Carbon exchange at the leaf level during photosynthesis is based on Farquhar et al (1980) and Collatz et al (1992) for C3 and C4 photosynthetic pathways, respectively. Concomitant water exchange through transpiration is linked to photosynthesis via the stomatal conductance, following the formulation of Ball et al (1987). Photosynthesis is calculated at a 30min time step while carbon allocation in the different soil-plant reservoirs is performed at a daily time step.</t>
-  </si>
-  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -2557,13 +2556,18 @@
   </si>
   <si>
     <t>cmip6.land.lakes.wetlands.description</t>
+  </si>
+  <si>
+    <t>ORCHIDEE (ORganizing Carbon and Hydrology In Dynamic EcosystEms) is a land-surface model that simulates the energy and water cycles of soil and vegetation, the terrestrial carbon cycle, and the vegetation composition and distribution (Krinner et al, 2005). The land surface is described as a mosaic of twelve plant functional types (PFTs) and bare soil. The definition of PFT is based on ecological parameters such as plant physiognomy (tree or grass), leaves (needle-leaf or broad-leaf), phenology (evergreen, summergreen or raingreen) and photosynthesis pathways for crops and grasses (C3 or C4). Relevant biophysical and biogeochemical parameters are prescribed for each PFT.
+Exchanges of energy (latent, sensible, and kinetic energy) and water, between the atmosphere and the biosphere are based on the work of Ducoudré et al (1993); de Rosnay and Polcher (1998) and calculated at a 30min time step together with the exchange of carbon during photosynthesis. The soil water budget within the standard version of ORCHIDEE is done with a 2-layers bucket model (de Rosnay and Polcher, 1998). The water that is not infiltrated or drained at the bottom of the soil is transported through rivers and aquifers (d’Orgeval et al, 2008). This routing scheme allows re-evaporation of the water on its way to the ocean through floodplains or irrigation (de Rosnay et al, 2003).
+The exchanges of water and energy at the land surface are interlinked with the exchange of carbon. The vegetation state (ie foliage density, interception capacity, soil-water stresses) is computed dynamically within ORCHIDEE (Krinner et al, 2005) and accounts for carbon assimilation, carbon allocation and senescence processes. Carbon exchange at the leaf level during photosynthesis is based on Farquhar et al (1980) and Collatz et al (1992) for C3 and C4 photosynthetic pathways, respectively. Concomitant water exchange through transpiration is linked to photosynthesis via the stomatal conductance, following the formulation of Ball et al (1987). Photosynthesis is calculated at a 30min time step while carbon allocation in the different soil-plant reservoirs is performed at a daily time step.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2759,6 +2763,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2805,7 +2817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2837,9 +2849,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2871,6 +2901,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3046,24 +3094,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3071,7 +3119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3087,7 +3135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3095,7 +3143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3103,52 +3151,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -3156,7 +3204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3164,7 +3212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3172,7 +3220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -3180,13 +3228,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3194,168 +3242,168 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="B20" r:id="rId2"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>695</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>698</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3364,524 +3412,509 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>713</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>715</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>716</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C19" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1">
+    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="B34" s="9" t="s">
+    </row>
+    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
+    <row r="37" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB37" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="AB37" s="6" t="s">
+      <c r="AC37" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="AC37" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B39" s="9" t="s">
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
+    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="B43" s="9" t="s">
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="178" customHeight="1">
+    <row r="46" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="11"/>
     </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
+    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="B48" s="9" t="s">
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1">
+    <row r="51" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC51" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="AB51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC51" s="6" t="s">
+      <c r="AD51" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="AD51" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="B53" s="9" t="s">
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="A54" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="C54" s="10" t="s">
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="B55" s="11" t="s">
+      <c r="AA55" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB55" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="AA55" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AB55" s="6" t="s">
+      <c r="AC55" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="AC55" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="A57" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B57" s="9" t="s">
+    </row>
+    <row r="58" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="A58" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="178" customHeight="1">
+    <row r="60" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
     </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
+    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="A63" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
+    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
     </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
+    <row r="68" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="B68" s="12" t="s">
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="13" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="B69" s="13" t="s">
+    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="B71" s="9" t="s">
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB73" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="AB73" s="6" t="s">
+      <c r="AC73" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="AC73" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
+      <c r="B75" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="B75" s="9" t="s">
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="A76" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1">
+    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AB78" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC78" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="AB78" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC78" s="6" t="s">
-        <v>757</v>
-      </c>
       <c r="AD78" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B41" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B73 B55" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>AA37:AC37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51 B78" xr:uid="{00000000-0002-0000-0A00-000005000000}">
       <formula1>AA51:AD51</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>AA55:AC55</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>AA73:AC73</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
-      <formula1>AA78:AD78</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3889,427 +3922,415 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>787</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>790</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="21" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
+    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC24" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>757</v>
-      </c>
       <c r="AD24" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="C27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
+    <row r="33" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
     </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
+    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="B36" s="12" t="s">
+    </row>
+    <row r="37" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="13" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="13" t="s">
+    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="B39" s="9" t="s">
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="C40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
+      <c r="B43" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="B47" s="9" t="s">
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
+    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB50" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="AB50" s="6" t="s">
+      <c r="AC50" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="AC50" s="6" t="s">
+      <c r="AD50" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="AD50" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="B52" s="9" t="s">
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="C53" s="10" t="s">
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="C57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="B61" s="12" t="s">
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="13" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="B62" s="13" t="s">
+    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
+      <c r="B64" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="178" customHeight="1">
+    <row r="67" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B58 B54 B41" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B50" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>AA24:AD24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>AA45:AC45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AD50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4317,46 +4338,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -4364,27 +4385,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
@@ -4392,42 +4413,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Soil,Snow,Vegetation,Energy Balance,Carbon Cycle,Nitrogen Cycle,River Routing,Lakes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
@@ -4435,12 +4458,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -4448,7 +4471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -4459,12 +4482,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
@@ -4472,7 +4495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -4483,15 +4506,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
@@ -4499,7 +4522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -4510,576 +4533,570 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="178" customHeight="1">
+    <row r="21" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
+    <row r="23" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="9" t="s">
+    </row>
+    <row r="24" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1">
+    </row>
+    <row r="25" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="24" customHeight="1">
+    <row r="26" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="AA26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AB26" s="6" t="s">
+      <c r="AC26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AC26" s="6" t="s">
+      <c r="AD26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AE26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AE26" s="6" t="s">
+      <c r="AF26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AF26" s="6" t="s">
+    </row>
+    <row r="28" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="9" t="s">
+    </row>
+    <row r="29" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="10" t="s">
+    </row>
+    <row r="30" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="32" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="9" t="s">
+    </row>
+    <row r="33" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:33" ht="24" customHeight="1">
-      <c r="A33" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="24" customHeight="1">
+    </row>
+    <row r="34" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="24" customHeight="1">
+    <row r="35" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AA35" s="6" t="s">
+      <c r="AB35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AB35" s="6" t="s">
+      <c r="AC35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AC35" s="6" t="s">
+      <c r="AD35" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AE35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AF35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AG35" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG37" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" ht="24" customHeight="1">
-      <c r="B36" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE36" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" ht="24" customHeight="1">
-      <c r="B37" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF37" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG37" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="9" t="s">
+    </row>
+    <row r="40" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:33" ht="24" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="43" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="43" spans="1:33" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="9" t="s">
+    </row>
+    <row r="44" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="1:33" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" ht="24" customHeight="1">
+    </row>
+    <row r="45" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="178" customHeight="1">
+    <row r="46" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="11"/>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="12" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="B50" s="13" t="s">
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="B52" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="178" customHeight="1">
+    <row r="55" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="178" customHeight="1">
+    <row r="60" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
     </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
+    <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="178" customHeight="1">
+    <row r="65" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
     </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
+    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="12" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="13" t="s">
+    <row r="71" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="9" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="14" t="s">
+      <c r="B72" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="10" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="B73" s="11"/>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
+      <c r="B75" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="9" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="14" t="s">
+      <c r="B76" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="10" t="s">
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B79" s="9" t="s">
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="10" t="s">
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
+      <c r="B84" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="12" t="s">
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="13" t="s">
+    <row r="87" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
+      <c r="B87" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="9" t="s">
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="10" t="s">
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
+      <c r="B91" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B91" s="9" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="10" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B95" s="9" t="s">
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
+    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="11"/>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
+    <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B101" s="12" t="s">
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="B102" s="13" t="s">
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
+      <c r="B104" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
+    <row r="107" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA26:AF26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35:B37" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AA35:AG35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AG36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>AA37:AG37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5088,211 +5105,211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="12" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="13" t="s">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="178" customHeight="1">
+    <row r="20" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="12" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="B28" s="13" t="s">
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="178" customHeight="1">
+    <row r="33" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5301,1097 +5318,1070 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="12" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="B28" s="13" t="s">
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="178" customHeight="1">
+    <row r="33" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="9" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="9" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C44" s="10" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B47" s="9" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="10" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="9" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="10" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="9" t="s">
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="10" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11"/>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B59" s="9" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="10" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B64" s="12" t="s">
+    </row>
+    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="B65" s="13" t="s">
+    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="A67" s="9" t="s">
+      <c r="B67" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B67" s="9" t="s">
+    </row>
+    <row r="68" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
-      <c r="A68" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="10" t="s">
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="B69" s="11"/>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B71" s="9" t="s">
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1">
+    <row r="74" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA74" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB74" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AA74" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB74" s="6" t="s">
+      <c r="AC74" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AC74" s="6" t="s">
+      <c r="AD74" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="AD74" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
+      <c r="B76" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B76" s="9" t="s">
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="10" t="s">
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
+      <c r="AA78" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AA78" s="6" t="s">
+      <c r="AB78" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC78" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="AB78" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC78" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
-      <c r="A80" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B80" s="9" t="s">
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
+    <row r="85" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="12" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="13" t="s">
+    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
+      <c r="B88" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="178" customHeight="1">
+    <row r="91" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
+    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C94" s="10" t="s">
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="11"/>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
+      <c r="B97" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="178" customHeight="1">
+    <row r="100" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
     </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
+    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B102" s="9" t="s">
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1">
+    <row r="105" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="11"/>
     </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
+    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B107" s="9" t="s">
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B108" s="10" t="s">
+      <c r="C108" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
+    <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B111" s="9" t="s">
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31" ht="24" customHeight="1">
+    </row>
+    <row r="113" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="24" customHeight="1">
+    <row r="114" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB114" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AB114" s="6" t="s">
+      <c r="AC114" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="AC114" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
+      <c r="B116" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B116" s="9" t="s">
+    </row>
+    <row r="117" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="117" spans="1:31" ht="24" customHeight="1">
-      <c r="A117" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C117" s="10" t="s">
+    </row>
+    <row r="118" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="118" spans="1:31" ht="24" customHeight="1">
-      <c r="B118" s="11" t="s">
+      <c r="AA118" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AA118" s="6" t="s">
+      <c r="AB118" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AB118" s="6" t="s">
+      <c r="AC118" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD118" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="AC118" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD118" s="6" t="s">
+      <c r="AE118" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="AE118" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31" ht="24" customHeight="1">
-      <c r="A121" s="12" t="s">
+      <c r="B121" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B121" s="12" t="s">
+    </row>
+    <row r="122" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="24" customHeight="1">
-      <c r="B122" s="13" t="s">
+    <row r="124" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="124" spans="1:31" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
+      <c r="B124" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B124" s="9" t="s">
+    </row>
+    <row r="125" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="125" spans="1:31" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C125" s="10" t="s">
+    </row>
+    <row r="126" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="11"/>
+    </row>
+    <row r="128" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="126" spans="1:31" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
-    </row>
-    <row r="128" spans="1:31" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
+      <c r="B128" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B128" s="9" t="s">
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C129" s="10" t="s">
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="132" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
+      <c r="B132" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B132" s="9" t="s">
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B133" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="178" customHeight="1">
+    <row r="135" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="11"/>
     </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
+    <row r="138" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B138" s="12" t="s">
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="13" t="s">
+    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="9" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="9" t="s">
+      <c r="B141" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B141" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B142" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="178" customHeight="1">
+    <row r="144" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="11"/>
     </row>
-    <row r="146" spans="1:33" ht="24" customHeight="1">
+    <row r="146" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B146" s="9" t="s">
+    </row>
+    <row r="147" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147" s="10" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="147" spans="1:33" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B147" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="148" spans="1:33" ht="24" customHeight="1">
+    </row>
+    <row r="148" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="24" customHeight="1">
+    <row r="149" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB149" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="AB149" s="6" t="s">
+      <c r="AC149" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="AC149" s="6" t="s">
+      <c r="AD149" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AD149" s="6" t="s">
+      <c r="AE149" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="AE149" s="6" t="s">
+      <c r="AF149" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AF149" s="6" t="s">
+      <c r="AG149" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="AG149" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" spans="1:33" ht="24" customHeight="1">
-      <c r="A152" s="12" t="s">
+      <c r="B152" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B152" s="12" t="s">
+    </row>
+    <row r="153" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="24" customHeight="1">
-      <c r="B153" s="13" t="s">
+    <row r="155" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="155" spans="1:33" ht="24" customHeight="1">
-      <c r="A155" s="9" t="s">
+      <c r="B155" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="156" spans="1:33" ht="24" customHeight="1">
-      <c r="A156" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B156" s="10" t="s">
+      <c r="C156" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="157" spans="1:33" ht="24" customHeight="1">
+    </row>
+    <row r="157" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="178" customHeight="1">
+    <row r="158" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="11"/>
     </row>
-    <row r="160" spans="1:33" ht="24" customHeight="1">
+    <row r="160" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="161" spans="1:29" ht="24" customHeight="1">
-      <c r="A161" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B161" s="10" t="s">
+      <c r="C161" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C161" s="10" t="s">
+    </row>
+    <row r="162" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="11"/>
+    </row>
+    <row r="164" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="9" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="162" spans="1:29" ht="24" customHeight="1">
-      <c r="B162" s="11"/>
-    </row>
-    <row r="164" spans="1:29" ht="24" customHeight="1">
-      <c r="A164" s="9" t="s">
+      <c r="B164" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="165" spans="1:29" ht="24" customHeight="1">
-      <c r="A165" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B165" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="166" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="178" customHeight="1">
+    <row r="167" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="11"/>
     </row>
-    <row r="169" spans="1:29" ht="24" customHeight="1">
+    <row r="169" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="170" spans="1:29" ht="24" customHeight="1">
-      <c r="A170" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="171" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="178" customHeight="1">
+    <row r="172" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="11"/>
     </row>
-    <row r="174" spans="1:29" ht="24" customHeight="1">
+    <row r="174" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B174" s="9" t="s">
+    </row>
+    <row r="175" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" s="10" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="175" spans="1:29" ht="24" customHeight="1">
-      <c r="A175" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B175" s="10" t="s">
+      <c r="C175" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C175" s="10" t="s">
+    </row>
+    <row r="176" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA176" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB176" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC176" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="176" spans="1:29" ht="24" customHeight="1">
-      <c r="B176" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA176" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB176" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC176" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" ht="24" customHeight="1">
-      <c r="A178" s="9" t="s">
+      <c r="B178" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B178" s="9" t="s">
+    </row>
+    <row r="179" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" s="10" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="179" spans="1:29" ht="24" customHeight="1">
-      <c r="A179" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B179" s="10" t="s">
+      <c r="C179" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C179" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="180" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="24" customHeight="1">
+    <row r="181" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="11"/>
       <c r="AA181" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB181" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AB181" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="AC181" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="6">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B162 B126 B109 B95 B82" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57 B69" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>AA74:AD74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78 B181 B176 B114" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>AA78:AC78</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>AA114:AC114</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118" xr:uid="{00000000-0002-0000-0400-000009000000}">
       <formula1>AA118:AE118</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149" xr:uid="{00000000-0002-0000-0400-00000B000000}">
       <formula1>AA149:AG149</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B162">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B176">
-      <formula1>AA176:AC176</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B181">
-      <formula1>AA181:AC181</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6399,528 +6389,513 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>352</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1">
+    <row r="18" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1">
+    <row r="22" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" ht="24" customHeight="1">
-      <c r="B24" s="11" t="s">
+      <c r="AA24" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AA24" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB28" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB28" s="6" t="s">
+      <c r="AC28" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="AC28" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="9" t="s">
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B34" s="9" t="s">
+    </row>
+    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C35" s="10" t="s">
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B38" s="9" t="s">
+    </row>
+    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B42" s="9" t="s">
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
+    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB45" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="AA45" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB45" s="6" t="s">
+      <c r="AC45" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="AC45" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="B47" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1">
+    </row>
+    <row r="49" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="24" customHeight="1">
+    <row r="50" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA50" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="AA50" s="6" t="s">
+      <c r="AB50" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC50" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="AB50" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="AC50" s="6" t="s">
+      <c r="AD50" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="AD50" s="6" t="s">
+      <c r="AE50" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="AE50" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="B52" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1">
+    </row>
+    <row r="54" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1">
+    <row r="55" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
     </row>
-    <row r="58" spans="1:31" ht="24" customHeight="1">
+    <row r="58" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B58" s="12" t="s">
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="B59" s="13" t="s">
+    <row r="61" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B61" s="9" t="s">
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C62" s="10" t="s">
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA63" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB63" s="6" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="B63" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA63" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB63" s="6" t="s">
+      <c r="AC63" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="AC63" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD63" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
+      <c r="B65" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" ht="24" customHeight="1">
+    </row>
+    <row r="67" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
+    <row r="68" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB68" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC68" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="AC68" s="6" t="s">
+      <c r="AD68" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="AD68" s="6" t="s">
+      <c r="AE68" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="AE68" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="AF68" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="5">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B45 B40 B36 B32 B28" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA24:AC24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AC32</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AC36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>AA40:AC40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>AA45:AC45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{00000000-0002-0000-0500-000007000000}">
       <formula1>AA50:AE50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63" xr:uid="{00000000-0002-0000-0500-000008000000}">
       <formula1>AA63:AD63</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0500-000009000000}">
       <formula1>AA68:AF68</formula1>
     </dataValidation>
   </dataValidations>
@@ -6929,941 +6904,902 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AM108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>419</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>422</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="17" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="17" spans="1:29" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="21" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:29" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="178" customHeight="1">
+    <row r="24" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
     </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1">
+    <row r="26" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11" t="s">
+      <c r="AA28" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB28" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="AA28" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB28" s="6" t="s">
+      <c r="AC28" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="AC28" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B30" s="9" t="s">
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="24" customHeight="1">
+    <row r="33" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA33" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="AA33" s="6" t="s">
+      <c r="AB33" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AB33" s="6" t="s">
+      <c r="AC33" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD33" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AC33" s="6" t="s">
+      <c r="AE33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA34" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AB34" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF37" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="AE33" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" ht="24" customHeight="1">
-      <c r="B34" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA34" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB34" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF34" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA35" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE35" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF35" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="24" customHeight="1">
-      <c r="B36" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE36" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" ht="24" customHeight="1">
-      <c r="B37" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE37" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF37" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="B39" s="9" t="s">
+    </row>
+    <row r="40" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="40" spans="1:39" ht="24" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" ht="24" customHeight="1">
+    </row>
+    <row r="41" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="24" customHeight="1">
+    <row r="42" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB42" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="AB42" s="6" t="s">
+      <c r="AC42" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="AC42" s="6" t="s">
+      <c r="AD42" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AE42" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="AE42" s="6" t="s">
+      <c r="AF42" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="AF42" s="6" t="s">
+      <c r="AG42" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="AG42" s="6" t="s">
+      <c r="AH42" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AH42" s="6" t="s">
+      <c r="AI42" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AI42" s="6" t="s">
+      <c r="AJ42" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="AJ42" s="6" t="s">
+      <c r="AK42" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="AK42" s="6" t="s">
+      <c r="AL42" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="AL42" s="6" t="s">
+      <c r="AM42" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="AM42" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B44" s="9" t="s">
+    </row>
+    <row r="45" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="45" spans="1:39" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C45" s="10" t="s">
+    </row>
+    <row r="46" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="46" spans="1:39" ht="24" customHeight="1">
-      <c r="B46" s="11" t="s">
+      <c r="AA46" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="AA46" s="6" t="s">
+      <c r="AB46" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC46" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="AB46" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="AC46" s="6" t="s">
+      <c r="AD46" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="AD46" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B48" s="9" t="s">
+    </row>
+    <row r="49" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C49" s="10" t="s">
+    </row>
+    <row r="50" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+    </row>
+    <row r="52" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B52" s="9" t="s">
+    </row>
+    <row r="53" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="54" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1">
+    <row r="56" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="57" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA58" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB58" s="6" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" ht="24" customHeight="1">
-      <c r="B58" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA58" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB58" s="6" t="s">
+      <c r="AC58" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="AC58" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B60" s="9" t="s">
+    </row>
+    <row r="61" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="24" customHeight="1">
+    </row>
+    <row r="62" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="178" customHeight="1">
+    <row r="63" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
     </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
+    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B65" s="9" t="s">
+    </row>
+    <row r="66" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="C66" s="10" t="s">
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA67" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="B67" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA67" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB67" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC67" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD67" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
+      <c r="B69" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="B69" s="9" t="s">
+    </row>
+    <row r="70" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="178" customHeight="1">
+    <row r="72" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
     </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1">
+    <row r="74" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B74" s="9" t="s">
+    </row>
+    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C75" s="10" t="s">
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA76" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB76" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC76" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="B76" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA76" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB76" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC76" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="B78" s="9" t="s">
+    </row>
+    <row r="79" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="80" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="178" customHeight="1">
+    <row r="81" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
     </row>
-    <row r="83" spans="1:32" ht="24" customHeight="1">
+    <row r="83" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="B83" s="9" t="s">
+    </row>
+    <row r="84" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1">
+    </row>
+    <row r="85" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
       <c r="AA85" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC85" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="B87" s="9" t="s">
+    </row>
+    <row r="88" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1">
+    </row>
+    <row r="89" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="178" customHeight="1">
+    <row r="90" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
     </row>
-    <row r="92" spans="1:32" ht="24" customHeight="1">
+    <row r="92" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B92" s="9" t="s">
+    </row>
+    <row r="93" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="93" spans="1:32" ht="24" customHeight="1">
-      <c r="A93" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B93" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="94" spans="1:32" ht="24" customHeight="1">
+    </row>
+    <row r="94" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1">
+    <row r="95" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA95" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="AA95" s="6" t="s">
+      <c r="AB95" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC95" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="AB95" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC95" s="6" t="s">
+      <c r="AD95" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE95" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="AD95" s="6" t="s">
+      <c r="AF95" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="AE95" s="6" t="s">
+      <c r="AA96" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB96" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC96" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD96" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE96" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF96" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA97" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB97" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC97" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD97" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE97" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF97" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA98" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB98" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC98" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD98" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE98" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF98" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="AF95" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" ht="24" customHeight="1">
-      <c r="B96" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="AA96" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="AB96" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC96" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD96" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="AE96" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="AF96" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:32" ht="24" customHeight="1">
-      <c r="B97" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="AA97" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="AB97" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC97" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD97" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="AE97" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="AF97" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="98" spans="1:32" ht="24" customHeight="1">
-      <c r="B98" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA98" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="AB98" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC98" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD98" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="AE98" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="AF98" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:32" ht="24" customHeight="1">
-      <c r="A100" s="9" t="s">
+      <c r="B100" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B100" s="9" t="s">
+    </row>
+    <row r="101" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="101" spans="1:32" ht="24" customHeight="1">
-      <c r="A101" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" s="10" t="s">
+      <c r="C101" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="102" spans="1:32" ht="24" customHeight="1">
+    </row>
+    <row r="102" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="178" customHeight="1">
+    <row r="103" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="11"/>
     </row>
-    <row r="105" spans="1:32" ht="24" customHeight="1">
+    <row r="105" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="106" spans="1:32" ht="24" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="107" spans="1:32" ht="24" customHeight="1">
+    </row>
+    <row r="107" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="24" customHeight="1">
+    <row r="108" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="19">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="6">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B54" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B85 B76 B58" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>AA28:AC28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95:B98 B33:B37" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>AA33:AF33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>AA34:AF34</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>AA35:AF35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AF36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>AA37:AF37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42" xr:uid="{00000000-0002-0000-0600-000008000000}">
       <formula1>AA42:AM42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B67" xr:uid="{00000000-0002-0000-0600-000009000000}">
       <formula1>AA46:AD46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>AA58:AC58</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AD67</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>AA76:AC76</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>AA85:AC85</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>AA95:AF95</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
-      <formula1>AA96:AF96</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>AA97:AF97</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
-      <formula1>AA98:AF98</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7871,220 +7807,220 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>531</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>534</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
+    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
+    <row r="22" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="B22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1">
+    </row>
+    <row r="24" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
+    <row r="25" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA25" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AB25" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AC25" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD25" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="AC25" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AE25" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="AE25" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
+    <row r="30" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>AA25:AE25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>AA30:AB30</formula1>
     </dataValidation>
   </dataValidations>
@@ -8093,955 +8029,943 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AE172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>560</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>563</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="C19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="B22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
+    <row r="25" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB25" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AC25" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="AD25" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B33" s="12" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="13" t="s">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B36" s="9" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B40" s="9" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B45" s="9" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="178" customHeight="1">
+    <row r="48" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="B51" s="12" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="13" t="s">
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="9" t="s">
+      <c r="B54" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="178" customHeight="1">
+    <row r="57" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
     </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="B60" s="12" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="13" t="s">
+    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="B63" s="9" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="178" customHeight="1">
+    <row r="66" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
     </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
+    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="B68" s="9" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="178" customHeight="1">
+    <row r="71" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
     </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
+    <row r="74" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="B74" s="12" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="13" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="13" t="s">
+    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
+      <c r="B77" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
+    <row r="80" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
     </row>
-    <row r="82" spans="1:31" ht="24" customHeight="1">
+    <row r="82" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="B82" s="9" t="s">
+    </row>
+    <row r="83" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="83" spans="1:31" ht="24" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B83" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="C83" s="10" t="s">
+    </row>
+    <row r="84" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="11" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" ht="24" customHeight="1">
-      <c r="B84" s="11" t="s">
+      <c r="AA84" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB84" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="AA84" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB84" s="6" t="s">
+      <c r="AC84" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="AC84" s="6" t="s">
+      <c r="AD84" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="AD84" s="6" t="s">
+      <c r="AE84" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="AE84" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" ht="24" customHeight="1">
-      <c r="A86" s="9" t="s">
+      <c r="B86" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="B86" s="9" t="s">
+    </row>
+    <row r="87" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="87" spans="1:31" ht="24" customHeight="1">
-      <c r="A87" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="C87" s="10" t="s">
+    </row>
+    <row r="88" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="11" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" ht="24" customHeight="1">
-      <c r="B88" s="11" t="s">
+      <c r="AA88" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="AA88" s="6" t="s">
+      <c r="AB88" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="AB88" s="6" t="s">
+      <c r="AC88" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="AC88" s="6" t="s">
+      <c r="AD88" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE88" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="AD88" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="AE88" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" ht="24" customHeight="1">
-      <c r="A91" s="12" t="s">
+      <c r="B91" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="B91" s="12" t="s">
+    </row>
+    <row r="92" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="13" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="24" customHeight="1">
-      <c r="B92" s="13" t="s">
+    <row r="94" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="94" spans="1:31" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
+      <c r="B94" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" ht="24" customHeight="1">
-      <c r="A95" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B95" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="C95" s="10" t="s">
+    </row>
+    <row r="96" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="12" t="s">
+      <c r="B99" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="B99" s="12" t="s">
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="13" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="13" t="s">
+    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
+      <c r="B102" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="C103" s="10" t="s">
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="11"/>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="12" t="s">
+      <c r="B107" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="B107" s="12" t="s">
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="13" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="B108" s="13" t="s">
+    <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="A110" s="9" t="s">
+      <c r="B110" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="C111" s="10" t="s">
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="11"/>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="B112" s="11"/>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="9" t="s">
+      <c r="B114" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C115" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
+    <row r="117" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="11"/>
     </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
+    <row r="119" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="B119" s="9" t="s">
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
+    <row r="122" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="11"/>
     </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
+    <row r="124" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="178" customHeight="1">
+    <row r="127" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="11"/>
     </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
+    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="B130" s="12" t="s">
+    </row>
+    <row r="131" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="13" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="B131" s="13" t="s">
+    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
+      <c r="B133" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
+    <row r="137" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
+    <row r="140" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="9" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
+      <c r="B142" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
+    <row r="145" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="11"/>
     </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
+    <row r="147" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="178" customHeight="1">
+    <row r="150" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="11"/>
     </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
+    <row r="153" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="B153" s="12" t="s">
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="13" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="13" t="s">
+    <row r="156" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="9" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="9" t="s">
+      <c r="B156" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="B156" s="9" t="s">
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B157" s="10" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B157" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C157" s="10" t="s">
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="11"/>
+    </row>
+    <row r="160" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="9" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="9" t="s">
+      <c r="B160" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="B160" s="9" t="s">
+    </row>
+    <row r="161" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="A161" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B161" s="10" t="s">
+      <c r="C161" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
+    <row r="163" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="11"/>
     </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
+    <row r="165" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="B165" s="9" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="A166" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="167" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
+    <row r="168" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="11"/>
     </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
+    <row r="170" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="B170" s="9" t="s">
+    </row>
+    <row r="171" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="24" customHeight="1">
-      <c r="A171" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B171" s="10" t="s">
+      <c r="C171" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="C171" s="10" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="172" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B135 B112 B38" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B88" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>AA84:AE84</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
-      <formula1>AA88:AE88</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158" xr:uid="{00000000-0002-0000-0800-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/repos/institutional/ipsl/cmip6/models/ipsl-cm6a-lr/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA31AB9-DA38-274F-92E0-E1462028DBCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25800" windowHeight="15780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -26,12 +20,12 @@
     <sheet name="9. River Routing" sheetId="11" r:id="rId11"/>
     <sheet name="10. Lakes" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="867">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -213,6 +207,13 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>ORCHIDEE (ORganizing Carbon and Hydrology In Dynamic EcosystEms) is a land-surface model that simulates the energy and water cycles of soil and vegetation, the terrestrial carbon cycle, and the vegetation composition and distribution (Krinner et al, 2005). The land surface is described as a mosaic of twelve plant functional types (PFTs) and bare soil. The definition of PFT is based on ecological parameters such as plant physiognomy (tree or grass), leaves (needle-leaf or broad-leaf), phenology (evergreen, summergreen or raingreen) and photosynthesis pathways for crops and grasses (C3 or C4). Relevant biophysical and biogeochemical parameters are prescribed for each PFT._x000D_
+_x000D_
+Exchanges of energy (latent, sensible, and kinetic energy) and water, between the atmosphere and the biosphere are based on the work of Ducoudré et al (1993); de Rosnay and Polcher (1998) and calculated at a 30min time step together with the exchange of carbon during photosynthesis. The soil water budget within the standard version of ORCHIDEE is done with a 2-layers bucket model (de Rosnay and Polcher, 1998). The water that is not infiltrated or drained at the bottom of the soil is transported through rivers and aquifers (d’Orgeval et al, 2008). This routing scheme allows re-evaporation of the water on its way to the ocean through floodplains or irrigation (de Rosnay et al, 2003)._x000D_
+_x000D_
+The exchanges of water and energy at the land surface are interlinked with the exchange of carbon. The vegetation state (ie foliage density, interception capacity, soil-water stresses) is computed dynamically within ORCHIDEE (Krinner et al, 2005) and accounts for carbon assimilation, carbon allocation and senescence processes. Carbon exchange at the leaf level during photosynthesis is based on Farquhar et al (1980) and Collatz et al (1992) for C3 and C4 photosynthetic pathways, respectively. Concomitant water exchange through transpiration is linked to photosynthesis via the stomatal conductance, following the formulation of Ball et al (1987). Photosynthesis is calculated at a 30min time step while carbon allocation in the different soil-plant reservoirs is performed at a daily time step.</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -240,123 +241,138 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -765,10 +781,13 @@
     <t>Vegetation type</t>
   </si>
   <si>
-    <t>Soil humidity</t>
-  </si>
-  <si>
-    <t>Vegetation state</t>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -786,7 +805,10 @@
     <t>No distinction between direct and diffuse albedo</t>
   </si>
   <si>
-    <t>Distinction between direct and diffuse albedo</t>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -873,10 +895,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -984,7 +1006,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>Topmodel-based</t>
+    <t>topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1062,10 +1084,10 @@
     <t>cmip6.land.soil.heat_treatment.processes</t>
   </si>
   <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>Coupling with snow temperature</t>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1134,6 +1156,12 @@
     <t>Constant</t>
   </si>
   <si>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
     <t>4.1.1.6 *</t>
   </si>
   <si>
@@ -1146,7 +1174,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>Diagnostic</t>
+    <t>diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1200,7 +1228,10 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
-    <t>Vegetation snow fraction</t>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
   </si>
   <si>
     <t>4.1.1.11 *</t>
@@ -1215,13 +1246,16 @@
     <t>Snow melting</t>
   </si>
   <si>
-    <t>Snow interception</t>
-  </si>
-  <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
   </si>
   <si>
     <t>4.1.1.12 *</t>
@@ -1254,7 +1288,10 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>Prescribed</t>
+    <t>Other: diagnostic</t>
+  </si>
+  <si>
+    <t>prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1269,13 +1306,16 @@
     <t>Snow age</t>
   </si>
   <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
   </si>
   <si>
     <t>5.1.1</t>
@@ -1350,7 +1390,10 @@
     <t>Vegetation types</t>
   </si>
   <si>
-    <t>Biome types</t>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1368,15 +1411,21 @@
     <t>C3 grass</t>
   </si>
   <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
     <t>Broadleaf tree</t>
   </si>
   <si>
     <t>Needleleaf tree</t>
   </si>
   <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.8 </t>
   </si>
   <si>
@@ -1389,40 +1438,40 @@
     <t>cmip6.land.vegetation.biome_types</t>
   </si>
   <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
   </si>
   <si>
     <t>5.1.1.9 *</t>
@@ -1440,10 +1489,13 @@
     <t>Prescribed (varying from files)</t>
   </si>
   <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Dynamical (varying from simulation)</t>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1482,7 +1534,7 @@
     <t>cmip6.land.vegetation.phenology</t>
   </si>
   <si>
-    <t>Diagnostic (vegetation map)</t>
+    <t>diagnostic (vegetation map)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.13 </t>
@@ -1584,15 +1636,24 @@
     <t>CO2</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Light</t>
   </si>
   <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1641,8 +1702,8 @@
     <t>cmip6.land.energy_balance.overview</t>
   </si>
   <si>
-    <t>Other for SchemeMethod:Processes: bare soil evaporation, intercepted water evaporation, snow sublimation, longwave radiation, shortwave radiation, ground heat flux_x005F_x000D_
-The ORCHIDEE land surface energy balance scheme calculates the fluxes of latent and sensible heat that are passed between the soil/vegetation and the atmosphere. Latent heat comprises calculations for sublimination, canopy transpiration and the evaporation of soil and water in the foliage._x005F_x000D_
+    <t>Other for SchemeMethod:Processes: bare soil evaporation, intercepted water evaporation, snow sublimation, longwave radiation, shortwave radiation, ground heat flux_x000D_
+The ORCHIDEE land surface energy balance scheme calculates the fluxes of latent and sensible heat that are passed between the soil/vegetation and the atmosphere. Latent heat comprises calculations for sublimination, canopy transpiration and the evaporation of soil and water in the foliage._x000D_
 Each type of vegetation, or Plant Functional Type (PFT) is treated as a single-layer canopy model. Bare soil is a further PFT. Computations are performed separately for each type of vegetation and an average is taken to determine the overall flux for the grid square in question.</t>
   </si>
   <si>
@@ -1682,10 +1743,13 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1703,6 +1767,9 @@
     <t>Transpiration</t>
   </si>
   <si>
+    <t>transpiration</t>
+  </si>
+  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1760,13 +1827,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1910,13 +1977,16 @@
     <t>Leaves + stems + roots</t>
   </si>
   <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1934,13 +2004,16 @@
     <t>Explicitly calculated</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Function of plant allometry</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2258,10 +2331,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2300,10 +2373,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Tracers</t>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2321,7 +2394,10 @@
     <t>Present day</t>
   </si>
   <si>
-    <t>Adapted for other periods</t>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2366,10 +2442,10 @@
     <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
   </si>
   <si>
-    <t>Direct (large rivers)</t>
-  </si>
-  <si>
-    <t>Diffuse</t>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2510,10 +2586,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -2556,18 +2632,13 @@
   </si>
   <si>
     <t>cmip6.land.lakes.wetlands.description</t>
-  </si>
-  <si>
-    <t>ORCHIDEE (ORganizing Carbon and Hydrology In Dynamic EcosystEms) is a land-surface model that simulates the energy and water cycles of soil and vegetation, the terrestrial carbon cycle, and the vegetation composition and distribution (Krinner et al, 2005). The land surface is described as a mosaic of twelve plant functional types (PFTs) and bare soil. The definition of PFT is based on ecological parameters such as plant physiognomy (tree or grass), leaves (needle-leaf or broad-leaf), phenology (evergreen, summergreen or raingreen) and photosynthesis pathways for crops and grasses (C3 or C4). Relevant biophysical and biogeochemical parameters are prescribed for each PFT.
-Exchanges of energy (latent, sensible, and kinetic energy) and water, between the atmosphere and the biosphere are based on the work of Ducoudré et al (1993); de Rosnay and Polcher (1998) and calculated at a 30min time step together with the exchange of carbon during photosynthesis. The soil water budget within the standard version of ORCHIDEE is done with a 2-layers bucket model (de Rosnay and Polcher, 1998). The water that is not infiltrated or drained at the bottom of the soil is transported through rivers and aquifers (d’Orgeval et al, 2008). This routing scheme allows re-evaporation of the water on its way to the ocean through floodplains or irrigation (de Rosnay et al, 2003).
-The exchanges of water and energy at the land surface are interlinked with the exchange of carbon. The vegetation state (ie foliage density, interception capacity, soil-water stresses) is computed dynamically within ORCHIDEE (Krinner et al, 2005) and accounts for carbon assimilation, carbon allocation and senescence processes. Carbon exchange at the leaf level during photosynthesis is based on Farquhar et al (1980) and Collatz et al (1992) for C3 and C4 photosynthetic pathways, respectively. Concomitant water exchange through transpiration is linked to photosynthesis via the stomatal conductance, following the formulation of Ball et al (1987). Photosynthesis is calculated at a 30min time step while carbon allocation in the different soil-plant reservoirs is performed at a daily time step.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2763,14 +2834,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2817,7 +2880,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2849,27 +2912,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2901,24 +2946,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3094,24 +3121,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3119,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3127,7 +3154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3135,7 +3162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3143,7 +3170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3151,52 +3178,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -3204,7 +3231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3212,7 +3239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3220,7 +3247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -3228,13 +3255,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3242,168 +3269,168 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>707</v>
+        <v>732</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3412,509 +3439,526 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AD78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>709</v>
+        <v>734</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>735</v>
+        <v>760</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>737</v>
+        <v>762</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>739</v>
+        <v>764</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>747</v>
+        <v>772</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="178" customHeight="1">
       <c r="B46" s="11"/>
     </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>761</v>
+        <v>786</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="178" customHeight="1">
       <c r="B60" s="11"/>
     </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="11"/>
     </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="B77" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="11"/>
+    <row r="78" spans="1:30" ht="24" customHeight="1">
+      <c r="B78" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="AA78" s="6" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+  <dataValidations count="9">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B41" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B73 B55" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
       <formula1>AA37:AC37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51 B78" xr:uid="{00000000-0002-0000-0A00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
       <formula1>AA51:AD51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>AA55:AC55</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
+      <formula1>AA73:AC73</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
+      <formula1>AA78:AD78</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3922,415 +3966,427 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AD67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="24" customHeight="1">
       <c r="B33" s="11"/>
     </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="11"/>
     </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="B54" s="11"/>
     </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="B58" s="11"/>
     </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="178" customHeight="1">
       <c r="B67" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B58 B54 B41" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B50" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AD24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{00000000-0002-0000-0B00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>AA45:AC45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+      <formula1>AA50:AD50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4338,46 +4394,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -4385,27 +4441,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
@@ -4413,44 +4469,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Soil,Snow,Vegetation,Energy Balance,Carbon Cycle,Nitrogen Cycle,River Routing,Lakes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
@@ -4458,12 +4512,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -4471,7 +4525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -4482,12 +4536,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
@@ -4495,7 +4549,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -4506,15 +4560,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
@@ -4522,7 +4576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -4533,570 +4587,576 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="178" customHeight="1">
       <c r="B21" s="11"/>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="B26" s="11"/>
       <c r="AA26" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="24" customHeight="1">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="24" customHeight="1">
+      <c r="B36" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AC35" s="6" t="s">
+      <c r="AB36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AC36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AD36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AE36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB36" s="6" t="s">
+      <c r="AF36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="24" customHeight="1">
+      <c r="B37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA37" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AC36" s="6" t="s">
+      <c r="AB37" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AD36" s="6" t="s">
+      <c r="AC37" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AE36" s="6" t="s">
+      <c r="AD37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AF36" s="6" t="s">
+      <c r="AE37" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AG36" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE37" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="AF37" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="24" customHeight="1">
       <c r="B41" s="11"/>
     </row>
-    <row r="43" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="178" customHeight="1">
       <c r="B46" s="11"/>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="178" customHeight="1">
       <c r="B55" s="11"/>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="178" customHeight="1">
       <c r="B60" s="11"/>
     </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="178" customHeight="1">
       <c r="B65" s="11"/>
     </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="B73" s="11"/>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="11"/>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="B81" s="11"/>
     </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="11"/>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="11"/>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="B97" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="B98" s="11"/>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="178" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
       <formula1>AA26:AF26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35:B37" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>AA35:AG35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AG36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>AA37:AG37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5105,211 +5165,211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="178" customHeight="1">
       <c r="B33" s="11"/>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5318,1070 +5378,1097 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="178" customHeight="1">
       <c r="B33" s="11"/>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11"/>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11"/>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11"/>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11"/>
     </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="11"/>
     </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="178" customHeight="1">
       <c r="B91" s="11"/>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="B95" s="11"/>
     </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="178" customHeight="1">
       <c r="B100" s="11"/>
     </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="178" customHeight="1">
       <c r="B105" s="11"/>
     </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" ht="24" customHeight="1">
       <c r="B113" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AC114" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AE118" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="122" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="126" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" ht="24" customHeight="1">
       <c r="B126" s="11"/>
     </row>
-    <row r="128" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11"/>
     </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="B134" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="178" customHeight="1">
       <c r="B135" s="11"/>
     </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="B143" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="178" customHeight="1">
       <c r="B144" s="11"/>
     </row>
-    <row r="146" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="147" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="148" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="B148" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AG149" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="152" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="153" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="155" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="156" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" ht="24" customHeight="1">
       <c r="A156" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="157" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" ht="24" customHeight="1">
       <c r="B157" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" ht="178" customHeight="1">
       <c r="B158" s="11"/>
     </row>
-    <row r="160" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="161" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="162" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" ht="24" customHeight="1">
       <c r="B162" s="11"/>
     </row>
-    <row r="164" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="165" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" ht="24" customHeight="1">
       <c r="A165" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" ht="24" customHeight="1">
       <c r="B166" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="178" customHeight="1">
       <c r="B167" s="11"/>
     </row>
-    <row r="169" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" ht="24" customHeight="1">
       <c r="A170" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" ht="24" customHeight="1">
       <c r="B171" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="178" customHeight="1">
       <c r="B172" s="11"/>
     </row>
-    <row r="174" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" ht="24" customHeight="1">
       <c r="A175" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AC176" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" ht="24" customHeight="1">
       <c r="A179" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" ht="24" customHeight="1">
       <c r="B180" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="B181" s="11"/>
       <c r="AA181" s="6" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AC181" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B162 B126 B109 B95 B82" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="15">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57 B69" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
       <formula1>AA74:AD74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78 B181 B176 B114" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>AA78:AC78</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118" xr:uid="{00000000-0002-0000-0400-000009000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>AA114:AC114</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
       <formula1>AA118:AE118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149" xr:uid="{00000000-0002-0000-0400-00000B000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149">
       <formula1>AA149:AG149</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B162">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B176">
+      <formula1>AA176:AC176</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B181">
+      <formula1>AA181:AC181</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6389,514 +6476,557 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AF68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="24" customHeight="1">
       <c r="B20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="B44" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="B50" s="11" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="B55" s="11"/>
     </row>
-    <row r="58" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="11"/>
+    <row r="68" spans="1:32" ht="24" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>424</v>
+      </c>
       <c r="AA68" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="AE68" s="6" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="AF68" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="24" customHeight="1">
+      <c r="B69" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA69" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB69" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC69" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD69" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE69" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF69" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="11">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B45 B40 B36 B32 B28" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AC24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{00000000-0002-0000-0500-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AC28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AC32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AC36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>AA40:AC40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>AA45:AC45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
       <formula1>AA50:AE50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63" xr:uid="{00000000-0002-0000-0500-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
       <formula1>AA63:AD63</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0500-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
       <formula1>AA68:AF68</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
+      <formula1>AA69:AF69</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6904,902 +7034,941 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AM108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
-    <row r="17" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
-    <row r="21" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="178" customHeight="1">
       <c r="B24" s="11"/>
     </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AE36" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF36" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" ht="24" customHeight="1">
       <c r="B41" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="AE42" s="6" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="AH42" s="6" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="AI42" s="6" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="AJ42" s="6" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="AK42" s="6" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="AL42" s="6" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AM42" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="B54" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA58" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="178" customHeight="1">
       <c r="B63" s="11"/>
     </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="A70" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="178" customHeight="1">
       <c r="B72" s="11"/>
     </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" ht="178" customHeight="1">
       <c r="B81" s="11"/>
     </row>
-    <row r="83" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="B85" s="11"/>
       <c r="AA85" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC85" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" ht="24" customHeight="1">
       <c r="B89" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" ht="178" customHeight="1">
       <c r="B90" s="11"/>
     </row>
-    <row r="92" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="A93" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>377</v>
+        <v>536</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AF95" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>377</v>
+        <v>536</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AF96" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>377</v>
+        <v>536</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AF97" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" ht="24" customHeight="1">
       <c r="B98" s="11" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="AA98" s="6" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="AB98" s="6" t="s">
-        <v>377</v>
+        <v>536</v>
       </c>
       <c r="AC98" s="6" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AD98" s="6" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="AE98" s="6" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AF98" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" ht="24" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="101" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" ht="24" customHeight="1">
       <c r="A101" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="102" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" ht="178" customHeight="1">
       <c r="B103" s="11"/>
     </row>
-    <row r="105" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="107" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" ht="24" customHeight="1">
       <c r="B107" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" ht="24" customHeight="1">
       <c r="B108" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations count="19">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B54" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B85 B76 B58" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
       <formula1>AA28:AC28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95:B98 B33:B37" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>AA33:AF33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42" xr:uid="{00000000-0002-0000-0600-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AF34</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AF35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AF36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>AA37:AF37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
       <formula1>AA42:AM42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B67" xr:uid="{00000000-0002-0000-0600-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>AA46:AD46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>AA58:AC58</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>AA67:AD67</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>AA76:AC76</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
+      <formula1>AA85:AC85</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+      <formula1>AA95:AF95</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
+      <formula1>AA96:AF96</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>AA97:AF97</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
+      <formula1>AA98:AF98</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7807,220 +7976,222 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AE30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
+    <row r="30" spans="1:31" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>577</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AE25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>AA30:AB30</formula1>
     </dataValidation>
   </dataValidations>
@@ -8029,943 +8200,955 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AE172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="178" customHeight="1">
       <c r="B48" s="11"/>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="178" customHeight="1">
       <c r="B57" s="11"/>
     </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="178" customHeight="1">
       <c r="B66" s="11"/>
     </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="178" customHeight="1">
       <c r="B71" s="11"/>
     </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="178" customHeight="1">
       <c r="B80" s="11"/>
     </row>
-    <row r="82" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="AE84" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" ht="24" customHeight="1">
       <c r="A87" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="24" customHeight="1">
       <c r="A95" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" ht="24" customHeight="1">
       <c r="B96" s="11"/>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="11"/>
     </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="B112" s="11"/>
     </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="A115" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11"/>
     </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="178" customHeight="1">
       <c r="B127" s="11"/>
     </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="B144" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="B145" s="11"/>
     </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
       <c r="A148" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="B149" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="178" customHeight="1">
       <c r="B150" s="11"/>
     </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>677</v>
+        <v>702</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
       <c r="B158" s="11"/>
     </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="B162" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="B163" s="11"/>
     </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1">
       <c r="A166" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="B167" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="24" customHeight="1">
       <c r="A171" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B135 B112 B38" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B88" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
       <formula1>AA84:AE84</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158" xr:uid="{00000000-0002-0000-0800-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
+      <formula1>AA88:AE88</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_land.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/repos/institutional/ipsl/cmip6/models/ipsl-cm6a-lr/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA31AB9-DA38-274F-92E0-E1462028DBCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25800" windowHeight="15780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -26,12 +20,12 @@
     <sheet name="9. River Routing" sheetId="11" r:id="rId11"/>
     <sheet name="10. Lakes" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="864">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -213,6 +207,11 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>ORCHIDEE (ORganizing Carbon and Hydrology In Dynamic EcosystEms) is a land-surface model that simulates the energy and water cycles of soil and vegetation, the terrestrial carbon cycle, and the vegetation composition and distribution (Krinner et al, 2005). The land surface is described as a mosaic of twelve plant functional types (PFTs) and bare soil. The definition of PFT is based on ecological parameters such as plant physiognomy (tree or grass), leaves (needle-leaf or broad-leaf), phenology (evergreen, summergreen or raingreen) and photosynthesis pathways for crops and grasses (C3 or C4). Relevant biophysical and biogeochemical parameters are prescribed for each PFT.
+Exchanges of energy (latent, sensible, and kinetic energy) and water, between the atmosphere and the biosphere are based on the work of Ducoudré et al (1993); de Rosnay and Polcher (1998) and calculated at a 30min time step together with the exchange of carbon during photosynthesis. The soil water budget within the standard version of ORCHIDEE is done with a 2-layers bucket model (de Rosnay and Polcher, 1998). The water that is not infiltrated or drained at the bottom of the soil is transported through rivers and aquifers (d’Orgeval et al, 2008). This routing scheme allows re-evaporation of the water on its way to the ocean through floodplains or irrigation (de Rosnay et al, 2003).
+The exchanges of water and energy at the land surface are interlinked with the exchange of carbon. The vegetation state (ie foliage density, interception capacity, soil-water stresses) is computed dynamically within ORCHIDEE (Krinner et al, 2005) and accounts for carbon assimilation, carbon allocation and senescence processes. Carbon exchange at the leaf level during photosynthesis is based on Farquhar et al (1980) and Collatz et al (1992) for C3 and C4 photosynthetic pathways, respectively. Concomitant water exchange through transpiration is linked to photosynthesis via the stomatal conductance, following the formulation of Ball et al (1987). Photosynthesis is calculated at a 30min time step while carbon allocation in the different soil-plant reservoirs is performed at a daily time step.</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -240,123 +239,138 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -765,10 +779,13 @@
     <t>Vegetation type</t>
   </si>
   <si>
-    <t>Soil humidity</t>
-  </si>
-  <si>
-    <t>Vegetation state</t>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -786,7 +803,10 @@
     <t>No distinction between direct and diffuse albedo</t>
   </si>
   <si>
-    <t>Distinction between direct and diffuse albedo</t>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -873,10 +893,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -984,7 +1004,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>Topmodel-based</t>
+    <t>topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1062,10 +1082,10 @@
     <t>cmip6.land.soil.heat_treatment.processes</t>
   </si>
   <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>Coupling with snow temperature</t>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1134,6 +1154,12 @@
     <t>Constant</t>
   </si>
   <si>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
     <t>4.1.1.6 *</t>
   </si>
   <si>
@@ -1146,7 +1172,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>Diagnostic</t>
+    <t>diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1200,7 +1226,10 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
-    <t>Vegetation snow fraction</t>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
   </si>
   <si>
     <t>4.1.1.11 *</t>
@@ -1215,13 +1244,16 @@
     <t>Snow melting</t>
   </si>
   <si>
-    <t>Snow interception</t>
-  </si>
-  <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
   </si>
   <si>
     <t>4.1.1.12 *</t>
@@ -1254,7 +1286,7 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>Prescribed</t>
+    <t>prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1266,16 +1298,16 @@
     <t>cmip6.land.snow.snow_albedo.functions</t>
   </si>
   <si>
-    <t>Snow age</t>
-  </si>
-  <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
   </si>
   <si>
     <t>5.1.1</t>
@@ -1350,7 +1382,10 @@
     <t>Vegetation types</t>
   </si>
   <si>
-    <t>Biome types</t>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1368,15 +1403,21 @@
     <t>C3 grass</t>
   </si>
   <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
     <t>Broadleaf tree</t>
   </si>
   <si>
     <t>Needleleaf tree</t>
   </si>
   <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.8 </t>
   </si>
   <si>
@@ -1389,40 +1430,40 @@
     <t>cmip6.land.vegetation.biome_types</t>
   </si>
   <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
   </si>
   <si>
     <t>5.1.1.9 *</t>
@@ -1440,10 +1481,13 @@
     <t>Prescribed (varying from files)</t>
   </si>
   <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Dynamical (varying from simulation)</t>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1482,7 +1526,7 @@
     <t>cmip6.land.vegetation.phenology</t>
   </si>
   <si>
-    <t>Diagnostic (vegetation map)</t>
+    <t>diagnostic (vegetation map)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.13 </t>
@@ -1584,13 +1628,22 @@
     <t>CO2</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Light</t>
   </si>
   <si>
     <t>Water availability</t>
-  </si>
-  <si>
-    <t>O3</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.21 </t>
@@ -1682,10 +1735,13 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1700,7 +1756,7 @@
     <t>cmip6.land.energy_balance.processes</t>
   </si>
   <si>
-    <t>Transpiration</t>
+    <t>transpiration</t>
   </si>
   <si>
     <t>7.1.1</t>
@@ -1760,13 +1816,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1910,13 +1966,16 @@
     <t>Leaves + stems + roots</t>
   </si>
   <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1934,13 +1993,16 @@
     <t>Explicitly calculated</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Function of plant allometry</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2258,10 +2320,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2300,10 +2362,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Tracers</t>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2321,7 +2383,10 @@
     <t>Present day</t>
   </si>
   <si>
-    <t>Adapted for other periods</t>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2366,10 +2431,10 @@
     <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
   </si>
   <si>
-    <t>Direct (large rivers)</t>
-  </si>
-  <si>
-    <t>Diffuse</t>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2510,10 +2575,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -2556,18 +2621,13 @@
   </si>
   <si>
     <t>cmip6.land.lakes.wetlands.description</t>
-  </si>
-  <si>
-    <t>ORCHIDEE (ORganizing Carbon and Hydrology In Dynamic EcosystEms) is a land-surface model that simulates the energy and water cycles of soil and vegetation, the terrestrial carbon cycle, and the vegetation composition and distribution (Krinner et al, 2005). The land surface is described as a mosaic of twelve plant functional types (PFTs) and bare soil. The definition of PFT is based on ecological parameters such as plant physiognomy (tree or grass), leaves (needle-leaf or broad-leaf), phenology (evergreen, summergreen or raingreen) and photosynthesis pathways for crops and grasses (C3 or C4). Relevant biophysical and biogeochemical parameters are prescribed for each PFT.
-Exchanges of energy (latent, sensible, and kinetic energy) and water, between the atmosphere and the biosphere are based on the work of Ducoudré et al (1993); de Rosnay and Polcher (1998) and calculated at a 30min time step together with the exchange of carbon during photosynthesis. The soil water budget within the standard version of ORCHIDEE is done with a 2-layers bucket model (de Rosnay and Polcher, 1998). The water that is not infiltrated or drained at the bottom of the soil is transported through rivers and aquifers (d’Orgeval et al, 2008). This routing scheme allows re-evaporation of the water on its way to the ocean through floodplains or irrigation (de Rosnay et al, 2003).
-The exchanges of water and energy at the land surface are interlinked with the exchange of carbon. The vegetation state (ie foliage density, interception capacity, soil-water stresses) is computed dynamically within ORCHIDEE (Krinner et al, 2005) and accounts for carbon assimilation, carbon allocation and senescence processes. Carbon exchange at the leaf level during photosynthesis is based on Farquhar et al (1980) and Collatz et al (1992) for C3 and C4 photosynthetic pathways, respectively. Concomitant water exchange through transpiration is linked to photosynthesis via the stomatal conductance, following the formulation of Ball et al (1987). Photosynthesis is calculated at a 30min time step while carbon allocation in the different soil-plant reservoirs is performed at a daily time step.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2763,14 +2823,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2817,7 +2869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2849,27 +2901,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2901,24 +2935,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3094,24 +3110,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3119,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3127,7 +3143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3135,7 +3151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3143,7 +3159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3151,52 +3167,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -3204,7 +3220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3212,7 +3228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3220,7 +3236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -3228,13 +3244,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3242,168 +3258,168 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3412,509 +3428,524 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AD78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="178" customHeight="1">
       <c r="B46" s="11"/>
     </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>761</v>
+        <v>784</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="178" customHeight="1">
       <c r="B60" s="11"/>
     </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>767</v>
+        <v>790</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="11"/>
     </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>770</v>
+        <v>793</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>773</v>
+        <v>796</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>775</v>
+        <v>798</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>778</v>
+        <v>801</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>779</v>
+        <v>802</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>781</v>
+        <v>804</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="B77" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+  <dataValidations count="9">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B41" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B73 B55" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
       <formula1>AA37:AC37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51 B78" xr:uid="{00000000-0002-0000-0A00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
       <formula1>AA51:AD51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>AA55:AC55</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
+      <formula1>AA73:AC73</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
+      <formula1>AA78:AD78</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3922,415 +3953,427 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AD67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>783</v>
+        <v>806</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>787</v>
+        <v>810</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>789</v>
+        <v>812</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>792</v>
+        <v>815</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>797</v>
+        <v>820</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="24" customHeight="1">
       <c r="B33" s="11"/>
     </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="11"/>
     </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="B54" s="11"/>
     </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="B58" s="11"/>
     </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="178" customHeight="1">
       <c r="B67" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B58 B54 B41" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B50" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AD24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{00000000-0002-0000-0B00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>AA45:AC45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+      <formula1>AA50:AD50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4338,46 +4381,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -4385,27 +4428,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
@@ -4413,44 +4456,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Soil,Snow,Vegetation,Energy Balance,Carbon Cycle,Nitrogen Cycle,River Routing,Lakes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
@@ -4458,12 +4499,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -4471,7 +4512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -4482,12 +4523,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
@@ -4495,7 +4536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -4506,15 +4547,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
@@ -4522,7 +4563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -4533,570 +4574,576 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="178" customHeight="1">
       <c r="B21" s="11"/>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="B26" s="11"/>
       <c r="AA26" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="24" customHeight="1">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="24" customHeight="1">
+      <c r="B36" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AC35" s="6" t="s">
+      <c r="AB36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AC36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AD36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AE36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB36" s="6" t="s">
+      <c r="AF36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="24" customHeight="1">
+      <c r="B37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA37" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AC36" s="6" t="s">
+      <c r="AB37" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AD36" s="6" t="s">
+      <c r="AC37" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AE36" s="6" t="s">
+      <c r="AD37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AF36" s="6" t="s">
+      <c r="AE37" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AG36" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE37" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="AF37" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="24" customHeight="1">
       <c r="B41" s="11"/>
     </row>
-    <row r="43" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="178" customHeight="1">
       <c r="B46" s="11"/>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="178" customHeight="1">
       <c r="B55" s="11"/>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="178" customHeight="1">
       <c r="B60" s="11"/>
     </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="178" customHeight="1">
       <c r="B65" s="11"/>
     </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="B73" s="11"/>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="11"/>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="B81" s="11"/>
     </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="11"/>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="11"/>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="B97" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="B98" s="11"/>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="178" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
       <formula1>AA26:AF26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35:B37" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>AA35:AG35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AG36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>AA37:AG37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5105,211 +5152,211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="178" customHeight="1">
       <c r="B33" s="11"/>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5318,1070 +5365,1097 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="178" customHeight="1">
       <c r="B33" s="11"/>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11"/>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11"/>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11"/>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11"/>
     </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="11"/>
     </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="178" customHeight="1">
       <c r="B91" s="11"/>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="B95" s="11"/>
     </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="178" customHeight="1">
       <c r="B100" s="11"/>
     </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="178" customHeight="1">
       <c r="B105" s="11"/>
     </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" ht="24" customHeight="1">
       <c r="B113" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AC114" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AE118" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="122" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="126" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" ht="24" customHeight="1">
       <c r="B126" s="11"/>
     </row>
-    <row r="128" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11"/>
     </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="B134" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="178" customHeight="1">
       <c r="B135" s="11"/>
     </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="B143" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="178" customHeight="1">
       <c r="B144" s="11"/>
     </row>
-    <row r="146" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="147" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="148" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="B148" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AG149" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="152" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="153" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="155" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="156" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" ht="24" customHeight="1">
       <c r="A156" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="157" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" ht="24" customHeight="1">
       <c r="B157" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" ht="178" customHeight="1">
       <c r="B158" s="11"/>
     </row>
-    <row r="160" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="161" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="162" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" ht="24" customHeight="1">
       <c r="B162" s="11"/>
     </row>
-    <row r="164" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="165" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" ht="24" customHeight="1">
       <c r="A165" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" ht="24" customHeight="1">
       <c r="B166" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="178" customHeight="1">
       <c r="B167" s="11"/>
     </row>
-    <row r="169" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" ht="24" customHeight="1">
       <c r="A170" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" ht="24" customHeight="1">
       <c r="B171" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="178" customHeight="1">
       <c r="B172" s="11"/>
     </row>
-    <row r="174" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" ht="24" customHeight="1">
       <c r="A175" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AC176" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" ht="24" customHeight="1">
       <c r="A179" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" ht="24" customHeight="1">
       <c r="B180" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="B181" s="11"/>
       <c r="AA181" s="6" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AC181" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B162 B126 B109 B95 B82" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="15">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57 B69" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
       <formula1>AA74:AD74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78 B181 B176 B114" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>AA78:AC78</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118" xr:uid="{00000000-0002-0000-0400-000009000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>AA114:AC114</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
       <formula1>AA118:AE118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149" xr:uid="{00000000-0002-0000-0400-00000B000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149">
       <formula1>AA149:AG149</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B162">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B176">
+      <formula1>AA176:AC176</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B181">
+      <formula1>AA181:AC181</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6389,513 +6463,528 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AF68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="24" customHeight="1">
       <c r="B20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="B44" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="B50" s="11" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="B55" s="11"/>
     </row>
-    <row r="58" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="AE68" s="6" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AF68" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="10">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B45 B40 B36 B32 B28" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AC24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{00000000-0002-0000-0500-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AC28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AC32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AC36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>AA40:AC40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>AA45:AC45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
       <formula1>AA50:AE50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63" xr:uid="{00000000-0002-0000-0500-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
       <formula1>AA63:AD63</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0500-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
       <formula1>AA68:AF68</formula1>
     </dataValidation>
   </dataValidations>
@@ -6904,902 +6993,941 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AM108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
-    <row r="17" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
-    <row r="21" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="178" customHeight="1">
       <c r="B24" s="11"/>
     </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AE36" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF36" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" ht="24" customHeight="1">
       <c r="B41" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="AE42" s="6" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="AH42" s="6" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="AI42" s="6" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="AJ42" s="6" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="AK42" s="6" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="AL42" s="6" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="AM42" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="B54" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA58" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="178" customHeight="1">
       <c r="B63" s="11"/>
     </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="A70" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="178" customHeight="1">
       <c r="B72" s="11"/>
     </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" ht="178" customHeight="1">
       <c r="B81" s="11"/>
     </row>
-    <row r="83" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="B85" s="11"/>
       <c r="AA85" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC85" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" ht="24" customHeight="1">
       <c r="B89" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" ht="178" customHeight="1">
       <c r="B90" s="11"/>
     </row>
-    <row r="92" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="A93" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AF95" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AF96" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AF97" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" ht="24" customHeight="1">
       <c r="B98" s="11" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="AA98" s="6" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="AB98" s="6" t="s">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="AC98" s="6" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="AD98" s="6" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="AE98" s="6" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AF98" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" ht="24" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="101" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" ht="24" customHeight="1">
       <c r="A101" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="102" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" ht="178" customHeight="1">
       <c r="B103" s="11"/>
     </row>
-    <row r="105" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="107" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" ht="24" customHeight="1">
       <c r="B107" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" ht="24" customHeight="1">
       <c r="B108" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations count="19">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B54" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B85 B76 B58" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
       <formula1>AA28:AC28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95:B98 B33:B37" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>AA33:AF33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42" xr:uid="{00000000-0002-0000-0600-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AF34</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AF35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AF36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>AA37:AF37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
       <formula1>AA42:AM42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B67" xr:uid="{00000000-0002-0000-0600-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>AA46:AD46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>AA58:AC58</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>AA67:AD67</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>AA76:AC76</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
+      <formula1>AA85:AC85</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+      <formula1>AA95:AF95</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
+      <formula1>AA96:AF96</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>AA97:AF97</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
+      <formula1>AA98:AF98</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7807,220 +7935,220 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AE30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AE25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>AA30:AB30</formula1>
     </dataValidation>
   </dataValidations>
@@ -8029,943 +8157,955 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AE172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="178" customHeight="1">
       <c r="B48" s="11"/>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="178" customHeight="1">
       <c r="B57" s="11"/>
     </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="178" customHeight="1">
       <c r="B66" s="11"/>
     </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="178" customHeight="1">
       <c r="B71" s="11"/>
     </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="178" customHeight="1">
       <c r="B80" s="11"/>
     </row>
-    <row r="82" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="AE84" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" ht="24" customHeight="1">
       <c r="A87" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="24" customHeight="1">
       <c r="A95" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" ht="24" customHeight="1">
       <c r="B96" s="11"/>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="11"/>
     </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="B112" s="11"/>
     </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="A115" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11"/>
     </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="178" customHeight="1">
       <c r="B127" s="11"/>
     </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="B144" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="B145" s="11"/>
     </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
       <c r="A148" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="B149" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="178" customHeight="1">
       <c r="B150" s="11"/>
     </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
       <c r="B158" s="11"/>
     </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="B162" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="B163" s="11"/>
     </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1">
       <c r="A166" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="B167" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="24" customHeight="1">
       <c r="A171" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B135 B112 B38" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B88" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
       <formula1>AA84:AE84</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158" xr:uid="{00000000-0002-0000-0800-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
+      <formula1>AA88:AE88</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
